--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.512</v>
+        <v>-7.546000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.784</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.42</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.818</v>
+        <v>17.429</v>
       </c>
     </row>
     <row r="13">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.592</v>
+        <v>-21.659</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22</v>
+        <v>-22.075</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.268000000000001</v>
+        <v>-8.258999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.272</v>
+        <v>-20.034</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-20.302</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,15 +845,15 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.242</v>
+        <v>-7.591999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>16.548</v>
+        <v>16.873</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.698</v>
+        <v>-21.608</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -862,15 +862,15 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.068000000000001</v>
+        <v>-7.281000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>17.454</v>
+        <v>16.935</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.328</v>
+        <v>-21.122</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.276000000000002</v>
+        <v>-7.922000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.988</v>
+        <v>-21.232</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.454000000000001</v>
+        <v>-7.305</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.168000000000001</v>
+        <v>-7.888999999999998</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.109999999999999</v>
+        <v>-7.502</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.454</v>
+        <v>-20.197</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.67</v>
+        <v>16.484</v>
       </c>
     </row>
     <row r="42">
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.034000000000001</v>
+        <v>-7.101000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.358000000000001</v>
+        <v>-8.326000000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.851999999999999</v>
+        <v>-8.083</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.932</v>
+        <v>-21.938</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.368</v>
+        <v>16.484</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.540000000000001</v>
+        <v>-8.179</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,15 +1389,15 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.053999999999998</v>
+        <v>-8.331999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>16.356</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.44</v>
+        <v>-22.606</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.359999999999999</v>
+        <v>-8.217000000000002</v>
       </c>
       <c r="E57" t="n">
-        <v>16.718</v>
+        <v>16.481</v>
       </c>
     </row>
     <row r="58">
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.464</v>
+        <v>16.478</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.452</v>
+        <v>-22.571</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.234</v>
+        <v>-8.408000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.822</v>
+        <v>16.652</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.188</v>
+        <v>17.392</v>
       </c>
     </row>
     <row r="64">
@@ -1528,12 +1528,12 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.386</v>
+        <v>17.186</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.578</v>
+        <v>-21.482</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.52</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.818</v>
+        <v>17.464</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.89</v>
+        <v>16.97000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.965999999999999</v>
+        <v>-8.004000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.124000000000001</v>
+        <v>-7.890000000000001</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.468</v>
+        <v>-20.896</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.886</v>
+        <v>-21.919</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.702</v>
+        <v>16.362</v>
       </c>
     </row>
     <row r="87">
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.898000000000001</v>
+        <v>-6.753</v>
       </c>
       <c r="E89" t="n">
-        <v>17.63</v>
+        <v>17.42</v>
       </c>
     </row>
     <row r="90">
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.303999999999999</v>
+        <v>-7.475999999999999</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.622</v>
+        <v>-21.527</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.925999999999999</v>
+        <v>-6.701000000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.728</v>
+        <v>-21.216</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.308</v>
+        <v>16.491</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.124</v>
+        <v>-22.111</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.34</v>
+        <v>16.562</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.502</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>
